--- a/output/LUY_KE_THANG_HE_THONG.xlsx
+++ b/output/LUY_KE_THANG_HE_THONG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AT13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,130 +516,150 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>properties.Dư nợ phát sinh.id</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Dư nợ phát sinh.type</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Dư nợ phát sinh.formula.type</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Dư nợ phát sinh.formula.number</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>properties.Chi tiêu.id</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>properties.Chi tiêu.type</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>properties.Chi tiêu.number</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>properties.Lũy kế.id</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>properties.Lũy kế.type</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>properties.Lũy kế.formula.type</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>properties.Lũy kế.formula.number</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>properties.Tổng doanh thu.id</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>properties.Tổng doanh thu.type</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>properties.Tổng doanh thu.formula.type</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>properties.Tổng doanh thu.formula.number</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>properties.Đã thanh toán.id</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>properties.Đã thanh toán.type</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>properties.Đã thanh toán.number</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>properties.Số lượng đơn.id</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Số lượng đơn.type</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>properties.Số lượng đơn.number</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>properties.Thu nợ.id</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>properties.Thu nợ.type</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>properties.Thu nợ.number</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>properties.Đơn giá.id</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>properties.Đơn giá.type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Đơn giá.number</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>properties.Tháng.id</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>properties.Tháng.type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>properties.Tháng.title</t>
         </is>
@@ -712,106 +732,124 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 12', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 12', 'href': None}]</t>
         </is>
@@ -884,106 +922,124 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 11', 'href': None}]</t>
         </is>
@@ -1056,106 +1112,124 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 10', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 10', 'href': None}]</t>
         </is>
@@ -1228,106 +1302,124 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 9', 'href': None}]</t>
         </is>
@@ -1400,106 +1492,124 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 8', 'href': None}]</t>
         </is>
@@ -1523,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-06-26T03:05:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1557,7 +1667,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1572,106 +1682,134 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>6800000</v>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>-3800000</v>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL7" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 7', 'href': None}]</t>
         </is>
@@ -1695,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1744,116 +1882,134 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>118600000</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>317528000</v>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>318528000</v>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W8" t="n">
-        <v>762672000</v>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
+        <v>761672000</v>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE8" t="n">
         <v>1080200000</v>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH8" t="n">
         <v>931300000</v>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG8" t="n">
-        <v>102</v>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK8" t="n">
+        <v>103</v>
+      </c>
+      <c r="AL8" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN8" t="n">
         <v>148900000</v>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ8" t="n">
         <v>1049900000</v>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 6', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 6', 'href': None}]</t>
         </is>
@@ -1877,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1926,116 +2082,134 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>133786000</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
         <v>32577000</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
         <v>407109000</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
         <v>439686000</v>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH9" t="n">
         <v>368300000</v>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK9" t="n">
         <v>46</v>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN9" t="n">
         <v>71386000</v>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ9" t="n">
         <v>502086000</v>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 5', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 5', 'href': None}]</t>
         </is>
@@ -2059,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2108,116 +2282,134 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>232400000</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
         <v>499986000</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
         <v>342764000</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE10" t="n">
         <v>842750000</v>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH10" t="n">
         <v>783350000</v>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK10" t="n">
         <v>66</v>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN10" t="n">
         <v>59400000</v>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ10" t="n">
         <v>1015750000</v>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 4', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 4', 'href': None}]</t>
         </is>
@@ -2241,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2290,116 +2482,134 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>166100000</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
         <v>323807000</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
         <v>455643000</v>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
         <v>779450000</v>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH11" t="n">
         <v>723950000</v>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK11" t="n">
         <v>98</v>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN11" t="n">
         <v>55500000</v>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ11" t="n">
         <v>890050000</v>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 3', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 3', 'href': None}]</t>
         </is>
@@ -2423,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-06-30T15:32:00.000Z</t>
+          <t>2024-07-01T14:22:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2472,116 +2682,134 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>51498000</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
         <v>115802000</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA12" t="n">
         <v>261993000</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
         <v>377795000</v>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH12" t="n">
         <v>349795000</v>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK12" t="n">
         <v>43</v>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN12" t="n">
         <v>28000000</v>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ12" t="n">
         <v>401293000</v>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 2', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 2', 'href': None}]</t>
         </is>
@@ -2654,106 +2882,124 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>GMPu</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>IynB</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
         <is>
           <t>PSic</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>Uc%3A%5E</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>V%3CuY</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>%5Be%3DQ</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr">
         <is>
           <t>iRq%5E</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>oNis</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Tháng 1', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Tháng 1', 'href': None}]</t>
         </is>
